--- a/заказы/филиалы и опт/2024/08,24/06,08,24 Ост КИ филиалы/дв 06,08,24 млрсч ост ки от Зверева.xlsx
+++ b/заказы/филиалы и опт/2024/08,24/06,08,24 Ост КИ филиалы/дв 06,08,24 млрсч ост ки от Зверева.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\08,24\06,08,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038EE3F6-C090-4CC5-AF65-64E285B4CBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197C8552-03AC-4323-BE9E-CE7DA2197B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,10 +912,10 @@
   <dimension ref="A1:AY497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="U71" sqref="U71"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,7 +2662,10 @@
       <c r="T17" s="5">
         <v>250</v>
       </c>
-      <c r="U17" s="1"/>
+      <c r="U17" s="15">
+        <f>O17/(X17/100)-100</f>
+        <v>318.51851851851848</v>
+      </c>
       <c r="V17" s="1">
         <f t="shared" si="4"/>
         <v>12.787610619469026</v>
